--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,342 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,6 +913,230 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>gameTest</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>playerRandom</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1361,6 +1361,34 @@
         <v>-4</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>match nul</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>Game ID</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,6 +793,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>9.223372036854776E+18</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,6 +1389,258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>gametest1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>player1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>player2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
